--- a/upload/allowance.xlsx
+++ b/upload/allowance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waylin\mydjango\e_invoice\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE77DB1-8A52-499B-BF92-82152B9E0E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09A455C-F0CF-46E7-9839-8001D7A76B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="285" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,13 +523,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -674,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -739,7 +741,7 @@
         <v>40</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -804,7 +806,7 @@
         <v>40</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -854,7 +856,7 @@
         <v>73</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5">
         <v>584</v>
@@ -919,7 +921,7 @@
         <v>206</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U6">
         <v>618</v>
@@ -984,7 +986,7 @@
         <v>227</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7">
         <v>1589</v>
@@ -1005,6 +1007,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="204" verticalDpi="192" r:id="rId1"/>
 </worksheet>
 </file>
 
